--- a/ApolloQA/Data/RatingManual/SC/VA00066.ClassCode_SizeTypeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00066.ClassCode_SizeTypeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00066.ClassCode_SizeTypeFactors" sheetId="1" r:id="Rf55f52c594624ac3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00066.ClassCode_SizeTypeFactors" sheetId="1" r:id="R9c549b26d1184755"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -970,6 +970,23 @@
         <x:v>All Other</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>10,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>20,001</x:v>
       </x:c>
       <x:c t="str">
@@ -1902,6 +1919,23 @@
         <x:v>536</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>SemiTrailer</x:v>
       </x:c>
       <x:c t="str">
@@ -2840,10 +2874,10 @@
         <x:v>Tractor</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>45,001</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>+</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,000</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0.9442</x:v>
@@ -2854,6 +2888,23 @@
         <x:v>544</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>Tractor</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9442</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>Trailer</x:v>
       </x:c>
       <x:c t="str">
@@ -3775,6 +3826,23 @@
         <x:v>Trailer</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trailer</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>2,001</x:v>
       </x:c>
       <x:c t="str">
@@ -4710,6 +4778,23 @@
         <x:v>All Other</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>557</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>10,001</x:v>
       </x:c>
       <x:c t="str">
@@ -5632,6 +5717,23 @@
       </x:c>
       <x:c t="str">
         <x:v>20,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>565</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,000</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
